--- a/РПР/4lab/UsingTheLibrary/Examen2.xlsx
+++ b/РПР/4lab/UsingTheLibrary/Examen2.xlsx
@@ -397,6 +397,22 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
